--- a/medicine/Pharmacie/Tésofensine/Tésofensine.xlsx
+++ b/medicine/Pharmacie/Tésofensine/Tésofensine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9sofensine</t>
+          <t>Tésofensine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tésofensine (NS2330) est un inhibiteur de la sérotonine, de la noradrénaline et de la dopamine de la famille pharmaceutique des phényltropanes, qui est actuellement développé pour le traitement symptomatique de l’obésité par la société Exiol.
 La tésofensine a, à l’origine, été étudiée par une compagnie danoise de biotechnologie, Neurosearch, qui a transféré ses droits à Saniona en 2014.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9sofensine</t>
+          <t>Tésofensine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches sur la tesofensine étaient à l’origine orientées vers le traitement des maladies d'Alzheimer et de Parkinson et furent rapidement abandonnées dès que l’on a vu que leur efficacité contre ces maladies était limitée.
 Mais ces recherches ont révélé des pertes de poids constantes comme effet secondaire et plus spécifiquement chez les personnes obèses ou en surpoids.
